--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mumushy/Sara/Sara指令表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mumushy/Sara_jupyter/Sara指令表/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="8920" yWindow="2440" windowWidth="16160" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,46 @@
   </si>
   <si>
     <t>SaraWeb.openWithURL()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢學校公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.SearchilearnBroadcast()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經幫你查詢完畢了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中天氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.SearchingWeather()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上為台中天氣～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維基百科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.SearchWiki()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上為搜尋結果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,20 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +452,17 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -422,8 +472,17 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -433,8 +492,17 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -443,6 +511,15 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="2440" windowWidth="16160" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="11000" yWindow="2360" windowWidth="16160" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,42 @@
   </si>
   <si>
     <t>以上為搜尋結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.constellationLuck()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座真是有趣 我也好想知道我的愛情運喔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推薦電影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.MovieRecommand()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也好想看電影喔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電影推薦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的品味還可以吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -440,9 +476,13 @@
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +501,17 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -481,8 +530,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,8 +559,17 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -520,6 +587,15 @@
       </c>
       <c r="F4" t="s">
         <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mumushy/Sara_jupyter/Sara指令表/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="2360" windowWidth="16160" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="10995" yWindow="2355" windowWidth="16155" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +133,22 @@
   </si>
   <si>
     <t>我的品味還可以吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食譜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraFood.recommendation()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要煮給我吃嗎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,25 +472,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +518,11 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -539,8 +550,11 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -568,8 +582,11 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -596,6 +613,9 @@
       </c>
       <c r="I4" t="s">
         <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mumushy/Githubs/Sara/Sara指令表/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="2355" windowWidth="16155" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="11000" yWindow="2360" windowWidth="16160" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -60,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查詢學校公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SaraWeb.SearchilearnBroadcast()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +153,10 @@
   </si>
   <si>
     <t>你要煮給我吃嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,23 +482,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,28 +509,28 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,25 +544,25 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -565,28 +573,28 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -597,25 +605,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,22 @@
   </si>
   <si>
     <t>學校公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraWeb.ListenMusic()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ya</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -496,9 +512,11 @@
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" customWidth="1"/>
+    <col min="11" max="11" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +547,11 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -561,8 +582,11 @@
       <c r="J2" t="s">
         <v>29</v>
       </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -593,8 +617,11 @@
       <c r="J3" t="s">
         <v>30</v>
       </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,6 +651,9 @@
       </c>
       <c r="J4" t="s">
         <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Sara指令表/Sara指令表.xlsx
+++ b/Sara指令表/Sara指令表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="2360" windowWidth="16160" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="9800" yWindow="1420" windowWidth="16160" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>指令關鍵字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,22 @@
   </si>
   <si>
     <t>ya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraReporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaraReporter.MakeReport()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我做好了 趕快去看看吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -514,9 +530,10 @@
     <col min="9" max="9" width="24.83203125" customWidth="1"/>
     <col min="10" max="10" width="37.83203125" customWidth="1"/>
     <col min="11" max="11" width="48" customWidth="1"/>
+    <col min="12" max="12" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +567,11 @@
       <c r="K1" t="s">
         <v>33</v>
       </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -585,8 +605,11 @@
       <c r="K2" t="s">
         <v>34</v>
       </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,8 +643,11 @@
       <c r="K3" t="s">
         <v>35</v>
       </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -654,6 +680,9 @@
       </c>
       <c r="K4" t="s">
         <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
